--- a/FantaSoccer/xG/Bundesliga/Augsburg_matches_2020.xlsx
+++ b/FantaSoccer/xG/Bundesliga/Augsburg_matches_2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
   <si>
     <t>home</t>
   </si>
@@ -127,6 +127,18 @@
     <t>1.44889</t>
   </si>
   <si>
+    <t>0.454651</t>
+  </si>
+  <si>
+    <t>0.97454</t>
+  </si>
+  <si>
+    <t>1.20083</t>
+  </si>
+  <si>
+    <t>1.21994</t>
+  </si>
+  <si>
     <t>1.42046</t>
   </si>
   <si>
@@ -166,6 +178,18 @@
     <t>2.37301</t>
   </si>
   <si>
+    <t>1.23997</t>
+  </si>
+  <si>
+    <t>4.01214</t>
+  </si>
+  <si>
+    <t>0.943511</t>
+  </si>
+  <si>
+    <t>1.98194</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -176,6 +200,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -573,13 +600,13 @@
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -596,13 +623,13 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -619,13 +646,13 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -642,13 +669,13 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -665,13 +692,13 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -688,13 +715,13 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -711,13 +738,13 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -734,13 +761,13 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -757,13 +784,13 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -780,13 +807,13 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -803,13 +830,13 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -826,13 +853,13 @@
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -849,13 +876,13 @@
         <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -868,6 +895,18 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
@@ -879,8 +918,20 @@
       <c r="C16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -890,8 +941,20 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -901,8 +964,20 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -913,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -924,7 +999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -935,7 +1010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -946,7 +1021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -957,7 +1032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -968,7 +1043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -979,7 +1054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -990,7 +1065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1001,7 +1076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1012,7 +1087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1023,7 +1098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1034,7 +1109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1045,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
